--- a/FDFile080224LatestWork (6).xlsx
+++ b/FDFile080224LatestWork (6).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacob\Desktop\EricSatCat\FD Input\WORK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="11_4B0E186866BABCBC1848E018D3EEDC4F21E0A166" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AF6877C6-A642-4AB3-9B07-6CE958E49F03}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="11_4B0E186866BABCBC1848E018D3EEDC4F21E0A166" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E353A978-D6FE-439D-8D35-7EA771940F2D}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="6075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Year</t>
   </si>
@@ -65,10 +65,19 @@
     <t>ECL_TIME</t>
   </si>
   <si>
+    <t>S_C</t>
+  </si>
+  <si>
     <t>Test 1</t>
   </si>
   <si>
+    <t>S_C1</t>
+  </si>
+  <si>
     <t>Test 2</t>
+  </si>
+  <si>
+    <t>S_C2</t>
   </si>
 </sst>
 </file>
@@ -449,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -465,7 +474,7 @@
     <col min="8" max="8" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -493,8 +502,11 @@
       <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>2024</v>
       </c>
@@ -520,10 +532,13 @@
         <v>3.8449074074074073E-2</v>
       </c>
       <c r="I2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="J2" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>2024</v>
       </c>
@@ -549,7 +564,10 @@
         <v>8.0115740740740696E-2</v>
       </c>
       <c r="I3" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="J3" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
